--- a/guide41_movie.xlsx
+++ b/guide41_movie.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\guide_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF90892-2B5F-4B0B-ADC0-D3B54DB14ED3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4606ABA5-EF41-4E0D-931D-CE93E30E8152}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="p1" sheetId="12" r:id="rId1"/>
+    <sheet name="index" sheetId="13" r:id="rId1"/>
+    <sheet name="p1" sheetId="12" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>header1</t>
   </si>
@@ -149,12 +150,47 @@
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>動画</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広大moodle 教職員向けマニュアル _動画</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ドウガ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;動画&lt;/h3&gt;&lt;br&gt;
+moodle では URL またはページを利用して、ストリーム動画を掲載することができます。
+操作方法については、「12.1 URL」および「12.2 ページ」を参照してください。
+また、Blackboard Learn で利用していたストリーム動画は、容易にコースに貼り付ける方
+法がありますので、別冊の移行編を参照してください。&lt;br &gt;
+</t>
+    <rPh sb="4" eb="6">
+      <t>ドウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +240,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -227,7 +270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,6 +288,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,11 +609,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C42E8A0-218D-407D-BD82-42570EE9FB2F}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2" ht="54">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="135">
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F95F980-CC2B-45F9-B5BE-620AB4593CC8}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/guide41_movie.xlsx
+++ b/guide41_movie.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4606ABA5-EF41-4E0D-931D-CE93E30E8152}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A672BE3E-627D-49EB-A310-38B9E1350152}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="13" r:id="rId1"/>
     <sheet name="p1" sheetId="12" r:id="rId2"/>
+    <sheet name="p2" sheetId="14" r:id="rId3"/>
+    <sheet name="p3" sheetId="15" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>header1</t>
   </si>
@@ -41,107 +43,6 @@
   </si>
   <si>
     <t>fresta</t>
-  </si>
-  <si>
-    <t>動画</t>
-  </si>
-  <si>
-    <r>
-      <t>moodle では URL またはページを利用して、ストリーム動画を掲載することができます。
-操作方法については、「12.1 URL」および「12.2 ページ」を参照してください。
-また、Blackboard Learn で利用していたストリーム動画は、容易にコースに貼り付ける方
-法がありますので、別冊の移行編を参照してください。
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>movie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;動画を掲載する&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>reuse</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;動画を再利用する&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>access res</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;アクセス者を限定して動画を掲載する&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
-    </r>
-    <rPh sb="194" eb="196">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="197" eb="199">
-      <t>ケイサイ</t>
-    </rPh>
-    <rPh sb="232" eb="234">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="235" eb="238">
-      <t>サイリヨウ</t>
-    </rPh>
-    <rPh sb="280" eb="281">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="282" eb="284">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="286" eb="288">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="289" eb="291">
-      <t>ケイサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>広大moodle マニュアル guide41-movie</t>
@@ -185,12 +86,21 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>動画を掲載する</t>
+  </si>
+  <si>
+    <t>動画を再利用する</t>
+  </si>
+  <si>
+    <t>アクセス者を限定して動画を掲載する</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,13 +142,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -289,8 +192,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -612,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C42E8A0-218D-407D-BD82-42570EE9FB2F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -627,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -635,7 +538,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -643,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -653,12 +556,12 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="135">
       <c r="B6" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -675,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F95F980-CC2B-45F9-B5BE-620AB4593CC8}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -697,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -713,18 +616,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:2" ht="150.75">
+    <row r="6" spans="1:2">
       <c r="A6" s="3"/>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="B6" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -733,25 +634,127 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A082704-70B0-449A-AE8F-CCBB6258592F}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08B0FE6-1402-41B5-A7CA-F51B1D7CB3B0}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1000,6 +1003,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1010,17 +1031,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1039,6 +1049,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>

--- a/guide41_movie.xlsx
+++ b/guide41_movie.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A672BE3E-627D-49EB-A310-38B9E1350152}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC999993-8F41-4245-BF03-1E7A967B9B42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29940" windowHeight="17595" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="13" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>header1</t>
   </si>
@@ -75,32 +75,719 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h3&gt;動画&lt;/h3&gt;&lt;br&gt;
-moodle では URL またはページを利用して、ストリーム動画を掲載することができます。
-操作方法については、「12.1 URL」および「12.2 ページ」を参照してください。
-また、Blackboard Learn で利用していたストリーム動画は、容易にコースに貼り付ける方
-法がありますので、別冊の移行編を参照してください。&lt;br &gt;
+    <t>動画を再利用する</t>
+  </si>
+  <si>
+    <t>アクセス者を限定して動画を掲載する</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h3&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>moodleから動画にリンクを設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h3&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>動画へのリンクを取得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Streamでアップロードと公開処理が終わったら、moodleで公開したい動画をクリックします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>「コピー」をクリックし、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>URLを取得します</t>
+    </r>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chartn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動画の右上の「共有」をクリックし、「リンクをコピー」をクリックします</t>
+    <rPh sb="3" eb="5">
+      <t>ミギウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>このリンクはURL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をクリックしたユーザーに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>編集権限やダウンロード権限を与えるリンクとなっているため、「リンクを知っている</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Hiroshima Universityのユーザーが編集できます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」をクリックして設定を変更します</t>
+    </r>
+    <rPh sb="21" eb="25">
+      <t>ヘンシュウケンゲン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をクリックしたユーザーに編集権限を与えず、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>表示のみできるように設定するには、「編集可能」をクリックし選択しを表示させ、「表示可能」を選択します
+ダウンロード不可にする場合は、「ダウンロードを禁止する」をオンにしてます</t>
+    </r>
+    <rPh sb="15" eb="17">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>「適用」をクリックするとURL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が表示されます</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Streamの動画を掲載する</t>
+    <rPh sb="10" eb="12">
+      <t>ケイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Stream上に掲載したい動画がない場合は、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Streamの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「アップロード」をクリックし、moodleで公開したい動画を選択します
+「開く」をクリックし、動画をアップロードします</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ドウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h3&gt;掲載</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>動画の準備</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>ケイサイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;a href="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>https://www.microsoft365.com/launch/stream?auth=2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Microsoft 365 Stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">へアクセスします。必要に応じて認証してください。
 </t>
-    <rPh sb="4" eb="6">
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;ul&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザ名には「IMCアカウント名@hiroshima-u.ac.jp」を、パスワードには広大パスワードを記入します</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザ名は初期の広大メールアドレスです。長い名前に変更している場合は、変更前を記入してください</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/ul&gt;</t>
+    </r>
+    <rPh sb="224" eb="226">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodleにログインし、該当授業のコースを開きます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動画を掲載したいセクションをクリックします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「活動またはリソースを追加する」をクリックします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「URL」をクリックします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「名称」に動画のタイトルを入力します</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「外部URL」にStreamでコピーした動画の視聴ページのURLをペーストします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「保存してコースに戻る」をクリックします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「編集モード」をクリックし、オンにします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>この方法は、学生は動画を観る際にmoodleから離れてStreamのサイトに移動することになります
+Stre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>mにはTeamsやSharePointなどMicrosoft 365</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アプリ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>でアップロードした動画をSteremから視聴することができるため、すでに他のMicrosoft 365アプリでアップロードした動画を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>moodleで公開</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">することもできます
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;動画がアップロードされている場所の権限に関係なく、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>URLをクリックした学内のユーザーは誰でも動画を視聴することが可能ですので、ご注意ください</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <rPh sb="128" eb="129">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="180" eb="182">
       <t>ドウガ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>動画を掲載する</t>
-  </si>
-  <si>
-    <t>動画を再利用する</t>
-  </si>
-  <si>
-    <t>アクセス者を限定して動画を掲載する</t>
+    <rPh sb="194" eb="196">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="197" eb="199">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="244" eb="246">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie1-1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie1-2.png</t>
+  </si>
+  <si>
+    <t>movie1-3.png</t>
+  </si>
+  <si>
+    <t>movie1-4.png</t>
+  </si>
+  <si>
+    <t>movie1-5.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +837,27 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,7 +881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -198,6 +906,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,7 +1230,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -559,10 +1273,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="135">
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
+    <row r="6" spans="1:2">
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="7"/>
@@ -576,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F95F980-CC2B-45F9-B5BE-620AB4593CC8}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -589,21 +1301,21 @@
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -611,7 +1323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75">
+    <row r="4" spans="1:4" ht="18.75">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -619,13 +1331,144 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="67.5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="81">
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="40.5">
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75">
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27">
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="40.5">
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="18.75">
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="18.75">
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -660,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -720,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -755,6 +1598,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1003,24 +1864,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1031,6 +1874,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1049,17 +1903,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>

--- a/guide41_movie.xlsx
+++ b/guide41_movie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC999993-8F41-4245-BF03-1E7A967B9B42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB52DE0-B218-44DC-BD5F-B543C250E7E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="29940" windowHeight="17595" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Streamでアップロードと公開処理が終わったら、moodleで公開したい動画をクリックします</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>「コピー」をクリックし、</t>
     </r>
@@ -648,6 +644,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>movie1-1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie1-2.png</t>
+  </si>
+  <si>
+    <t>movie1-3.png</t>
+  </si>
+  <si>
+    <t>movie1-4.png</t>
+  </si>
+  <si>
+    <t>movie1-5.png</t>
+  </si>
+  <si>
+    <t>Streamへのアップロードが終わったら、moodleで公開したい動画をクリックします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <t>この方法は、学生は動画を観る際にmoodleから離れてStreamのサイトに移動することになります
 Stre</t>
@@ -690,7 +706,8 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>でアップロードした動画をSteremから視聴することができるため、すでに他のMicrosoft 365アプリでアップロードした動画を</t>
+      <t>でアップロードした動画を視聴することができるため、
+すでに他のMicrosoft 365アプリでアップロードした動画を</t>
     </r>
     <r>
       <rPr>
@@ -743,44 +760,28 @@
       </rPr>
       <t>&lt;/b&gt;</t>
     </r>
-    <rPh sb="128" eb="129">
+    <rPh sb="121" eb="122">
       <t>ホカ</t>
     </rPh>
-    <rPh sb="165" eb="167">
+    <rPh sb="158" eb="160">
       <t>コウカイ</t>
     </rPh>
-    <rPh sb="180" eb="182">
+    <rPh sb="173" eb="175">
       <t>ドウガ</t>
     </rPh>
-    <rPh sb="194" eb="196">
+    <rPh sb="187" eb="189">
       <t>バショ</t>
     </rPh>
-    <rPh sb="197" eb="199">
+    <rPh sb="190" eb="192">
       <t>ケンゲン</t>
     </rPh>
-    <rPh sb="200" eb="202">
+    <rPh sb="193" eb="195">
       <t>カンケイ</t>
     </rPh>
-    <rPh sb="244" eb="246">
+    <rPh sb="237" eb="239">
       <t>チュウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>movie1-1.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>movie1-2.png</t>
-  </si>
-  <si>
-    <t>movie1-3.png</t>
-  </si>
-  <si>
-    <t>movie1-4.png</t>
-  </si>
-  <si>
-    <t>movie1-5.png</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1292,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1312,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1342,22 +1343,22 @@
     <row r="7" spans="1:4" ht="67.5">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="81">
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40.5">
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1367,56 +1368,56 @@
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75">
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27">
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.5">
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="18.75">
       <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="D17" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -1426,48 +1427,48 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="18.75">
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1598,24 +1599,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1864,6 +1847,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1874,17 +1875,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1903,6 +1893,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>

--- a/guide41_movie.xlsx
+++ b/guide41_movie.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB52DE0-B218-44DC-BD5F-B543C250E7E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD203BEC-A884-4E5D-B46D-9255B1577B7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29940" windowHeight="17595" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17535" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="13" r:id="rId1"/>
     <sheet name="p1" sheetId="12" r:id="rId2"/>
-    <sheet name="p2" sheetId="14" r:id="rId3"/>
-    <sheet name="p3" sheetId="15" r:id="rId4"/>
+    <sheet name="p2" sheetId="16" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>header1</t>
   </si>
@@ -75,12 +74,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>動画を再利用する</t>
-  </si>
-  <si>
-    <t>アクセス者を限定して動画を掲載する</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -781,6 +774,318 @@
     <rPh sb="237" eb="239">
       <t>チュウイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセス者を限定して動画を掲載する【限定メンバ】</t>
+    <rPh sb="4" eb="5">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケイサイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゲンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コースに登録された学生だけに動画の閲覧権限を与えたい場合には「限定メンバ」の手法で動画を掲載します。</t>
+    <rPh sb="14" eb="16">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ケイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="teams"&gt;&lt;/a&gt;コース連携用チームの作成&lt;/h3&gt;</t>
+    <rPh sb="27" eb="30">
+      <t>レンケイヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（moodleのコースとの連携用に）Teamsのチームを作成し、moodleのコースと上のチームをリンクします
+手順は以下をご参照ください
+https://support.vle.hiroshima-u.ac.jp/mdl:teams_link</t>
+    <rPh sb="13" eb="15">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="gettingcode"&gt;&lt;/a&gt;動画のアップロードと動画の埋め込みコードの取得&lt;/h3&gt;</t>
+    <rPh sb="40" eb="42">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Teamsアプリから、コース用に作成したチームの「ファイル」をクリックします</t>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie2_1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドキュメント&gt;General配下の任意の場所に動画をアップロードします
+例では、moodleのコース内のSectionに合わせてフォルダを作成し、
+Sectionごとに動画を保存していますが、ドキュメント&gt;General直下にアップロードしても問題ありません
+このようにTeamsの各チーム領域に動画を保存することで、チームのメンバーのみに閲覧権限を限定させることができます</t>
+    <rPh sb="14" eb="16">
+      <t>ハイカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>チョッカ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie2_2.png</t>
+  </si>
+  <si>
+    <t>保存した動画の「…」をクリックし、「SharePointで開く」をクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie2_3.png</t>
+  </si>
+  <si>
+    <t>SharePoint上で動画をクリックすると、Streamに遷移します</t>
+    <rPh sb="10" eb="11">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie2_4.png</t>
+  </si>
+  <si>
+    <t>画面右上の「共有∨」をクリックして、「埋め込みコード」をクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie2_5.png</t>
+  </si>
+  <si>
+    <t>「埋め込みコードのコピー」をクリックして、メモ帳か何かに保存します</t>
+    <rPh sb="1" eb="2">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie2_6.png</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="moodle"&gt;&lt;/a&gt;moodleへの動画の掲示&lt;/h3&gt;</t>
+    <rPh sb="33" eb="35">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ケイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>moodle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>にログインし、該当授業のコースを開きます</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「編集モードの開始」をクリックします</t>
+  </si>
+  <si>
+    <t>「活動またはリソースを追加する」をクリックし、「ページ」をクリックします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie2_7.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「名称」に動画のタイトルを入力します</t>
+  </si>
+  <si>
+    <t>movie2_8.png</t>
+  </si>
+  <si>
+    <t>「ページコンテンツ」のテキストエディタの左端にある下向きのアイコンをクリックし、テキストエディタのアイコン下段右から2番目にある、「&lt;/&gt;」をクリックします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie2_9.png</t>
+  </si>
+  <si>
+    <t>Streamでコピーした、動画の埋め込みコードをペーストします</t>
+  </si>
+  <si>
+    <t>movie2_10.png</t>
+  </si>
+  <si>
+    <t>「保存してコースに戻る」をクリックします</t>
+  </si>
+  <si>
+    <t>追加した「ページ」にアクセスし、埋め込み動画が表示されるか確認します</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie2_11.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -788,7 +1093,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -859,6 +1164,33 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック "/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -882,7 +1214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -913,6 +1245,24 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1291,7 +1641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F95F980-CC2B-45F9-B5BE-620AB4593CC8}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1313,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1343,132 +1693,132 @@
     <row r="7" spans="1:4" ht="67.5">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="81">
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40.5">
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75">
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27">
       <c r="B14" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.5">
       <c r="B15" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="18.75">
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="18.75">
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1479,35 +1829,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A082704-70B0-449A-AE8F-CCBB6258592F}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7444E6EB-2399-4B83-A43D-334DCE33DF01}">
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="83.375" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1515,7 +1865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75">
+    <row r="4" spans="1:4" ht="18.75">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1523,73 +1873,208 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08B0FE6-1402-41B5-A7CA-F51B1D7CB3B0}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5"/>
+    <row r="7" spans="1:4" ht="27">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="75">
+      <c r="A10" s="3"/>
+      <c r="B10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75">
+      <c r="A11" s="3"/>
+      <c r="B11" s="14"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75">
+      <c r="A12" s="3"/>
+      <c r="B12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.75">
+      <c r="A13" s="3"/>
+      <c r="B13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="81">
+      <c r="A14" s="3"/>
+      <c r="B14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75">
+      <c r="A15" s="3"/>
+      <c r="B15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75">
+      <c r="A16" s="3"/>
+      <c r="B16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75">
+      <c r="A17" s="3"/>
+      <c r="B17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75">
+      <c r="A18" s="3"/>
+      <c r="B18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75">
+      <c r="B21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" ht="18.75">
+      <c r="B22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" ht="18.75">
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" ht="18.75">
+      <c r="B24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.75">
+      <c r="B25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.75">
+      <c r="B26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.75">
+      <c r="B27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75">
+      <c r="B28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" ht="18.75">
+      <c r="B29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1599,6 +2084,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1847,34 +2359,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1891,23 +2395,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_movie.xlsx
+++ b/guide41_movie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD203BEC-A884-4E5D-B46D-9255B1577B7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2222945B-F1E1-489F-B344-F10E36DECDFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17535" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>header1</t>
   </si>
@@ -960,25 +960,6 @@
     <t>movie2_4.png</t>
   </si>
   <si>
-    <t>画面右上の「共有∨」をクリックして、「埋め込みコード」をクリックします</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ミギウエ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キョウユウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>movie2_5.png</t>
   </si>
   <si>
@@ -1037,10 +1018,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>movie2_7.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「名称」に動画のタイトルを入力します</t>
   </si>
   <si>
@@ -1085,7 +1062,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>「埋め込みコード」をクリックします</t>
+  </si>
+  <si>
+    <t>画面右上の「共有∨」をクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie2_7.png</t>
+  </si>
+  <si>
     <t>movie2_11.png</t>
+  </si>
+  <si>
+    <t>movie2_12.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1830,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7444E6EB-2399-4B83-A43D-334DCE33DF01}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1968,112 +1967,124 @@
     <row r="17" spans="1:4" ht="18.75">
       <c r="A17" s="3"/>
       <c r="B17" s="11" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75">
+      <c r="A19" s="3"/>
+      <c r="B19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="B20" s="11" t="s">
+    <row r="22" spans="1:4" ht="18.75">
+      <c r="B22" s="15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.75">
-      <c r="B21" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" ht="18.75">
-      <c r="B22" s="16" t="s">
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" ht="18.75">
+      <c r="B23" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" ht="18.75">
-      <c r="B23" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:4" ht="18.75">
       <c r="B24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>58</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:4" ht="18.75">
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.75">
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75">
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75">
       <c r="B28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="18.75">
-      <c r="B29" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" ht="18.75">
+      <c r="B30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>67</v>
+      <c r="D30" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2084,33 +2095,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2359,10 +2343,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2379,20 +2401,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41_movie.xlsx
+++ b/guide41_movie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2222945B-F1E1-489F-B344-F10E36DECDFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A709948B-6D9A-4226-B38B-DAC1DF6B49A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17535" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -1024,10 +1024,6 @@
     <t>movie2_8.png</t>
   </si>
   <si>
-    <t>「ページコンテンツ」のテキストエディタの左端にある下向きのアイコンをクリックし、テキストエディタのアイコン下段右から2番目にある、「&lt;/&gt;」をクリックします</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>movie2_9.png</t>
   </si>
   <si>
@@ -1085,6 +1081,10 @@
   </si>
   <si>
     <t>movie2_12.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ページコンテンツ」のテキストエディタの左端にある下向きのアイコンをクリックし、テキストエディタのアイコン下段右から2番目にある、「HTML」アイコンをクリックします</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1829,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7444E6EB-2399-4B83-A43D-334DCE33DF01}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1876,215 +1876,207 @@
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="27">
       <c r="A6" s="3"/>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="27">
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="3"/>
-      <c r="B7" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="75">
       <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
       <c r="A9" s="3"/>
-      <c r="B9" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="75">
+      <c r="B9" s="14"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
       <c r="A10" s="3"/>
-      <c r="B10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="9"/>
+      <c r="B10" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="A11" s="3"/>
-      <c r="B11" s="14"/>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:4" ht="18.75">
+      <c r="B11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="81">
       <c r="A12" s="3"/>
       <c r="B12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="13"/>
+        <v>44</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="18.75">
       <c r="A13" s="3"/>
       <c r="B13" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="81">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75">
       <c r="A14" s="3"/>
       <c r="B14" s="11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="A15" s="3"/>
       <c r="B15" s="11" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75">
       <c r="A17" s="3"/>
       <c r="B17" s="11" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.75">
-      <c r="A18" s="3"/>
-      <c r="B18" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75">
+      <c r="B20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" ht="18.75">
+      <c r="B21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" ht="18.75">
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" ht="18.75">
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.75">
-      <c r="A19" s="3"/>
-      <c r="B19" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="B21" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.75">
-      <c r="B22" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" ht="18.75">
-      <c r="B23" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="9"/>
+      <c r="D23" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="18.75">
       <c r="B24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="9"/>
+        <v>57</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="18.75">
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.75">
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75">
       <c r="B27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="13" t="s">
         <v>62</v>
       </c>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:4" ht="18.75">
-      <c r="B28" s="2" t="s">
-        <v>61</v>
+      <c r="B28" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18.75">
-      <c r="B29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" ht="18.75">
-      <c r="B30" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2095,6 +2087,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2343,34 +2362,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2387,23 +2398,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_movie.xlsx
+++ b/guide41_movie.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A709948B-6D9A-4226-B38B-DAC1DF6B49A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371FE8B8-2C4A-4645-8481-AE63EEC5E408}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17535" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="13" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>header1</t>
   </si>
@@ -1086,6 +1086,17 @@
   <si>
     <t>「ページコンテンツ」のテキストエディタの左端にある下向きのアイコンをクリックし、テキストエディタのアイコン下段右から2番目にある、「HTML」アイコンをクリックします</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;アピアランス
+の[表示]を[新しいウィンドウ]に変更します</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie1-6.png</t>
+  </si>
+  <si>
+    <t>movie1-7.png</t>
   </si>
 </sst>
 </file>
@@ -1638,10 +1649,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F95F980-CC2B-45F9-B5BE-620AB4593CC8}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1815,9 +1826,26 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="2:4" ht="27">
+      <c r="B26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="18.75">
+      <c r="B27" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1831,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7444E6EB-2399-4B83-A43D-334DCE33DF01}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2087,33 +2115,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2362,10 +2363,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2382,20 +2421,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41_movie.xlsx
+++ b/guide41_movie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371FE8B8-2C4A-4645-8481-AE63EEC5E408}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637866C7-6C22-4331-AA7C-936BE0E679E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="13" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
   <si>
     <t>header1</t>
   </si>
@@ -852,22 +852,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="gettingcode"&gt;&lt;/a&gt;動画のアップロードと動画の埋め込みコードの取得&lt;/h3&gt;</t>
-    <rPh sb="40" eb="42">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Teamsアプリから、コース用に作成したチームの「ファイル」をクリックします</t>
     <rPh sb="14" eb="15">
       <t>ヨウ</t>
@@ -882,49 +866,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ドキュメント&gt;General配下の任意の場所に動画をアップロードします
-例では、moodleのコース内のSectionに合わせてフォルダを作成し、
-Sectionごとに動画を保存していますが、ドキュメント&gt;General直下にアップロードしても問題ありません
-このようにTeamsの各チーム領域に動画を保存することで、チームのメンバーのみに閲覧権限を限定させることができます</t>
-    <rPh sb="14" eb="16">
-      <t>ハイカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>チョッカ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>movie2_2.png</t>
   </si>
   <si>
@@ -1088,15 +1029,146 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&gt;アピアランス
-の[表示]を[新しいウィンドウ]に変更します</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>movie1-6.png</t>
   </si>
   <si>
     <t>movie1-7.png</t>
+  </si>
+  <si>
+    <t>「アピアランス」の「表示」を「新しいウィンドウ」に変更します</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドキュメント&gt;General配下の任意の場所に動画をアップロードします
+例では、moodleのコース内のSectionに合わせてフォルダを作成し、
+Sectionごとに動画を保存していますが、ドキュメント&gt;General直下にアップロードしても問題ありません</t>
+    <rPh sb="14" eb="16">
+      <t>ハイカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>チョッカ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【注意】このようにTeamsの各チーム領域に動画を保存すると、チームの全メンバーに編集権限がついた状態になるので、動画を保存したフォルダの権限設定を変更します
+※当該チームで会議を録画したことがある場合、「Recordings/表示のみ」というフォルダが作成されます。このフォルダは初めから「メンバーはダウンロードのみ」許可されたフォルダになりますので、下記の権限設定が不要です。</t>
+    <rPh sb="82" eb="84">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SharePointでのチームのファイル管理画面が表示されます
+該当ファイルの「…」から「アクセス許可の管理」をクリックします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面右上の「…」から「詳細設定」をクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトでは親フォルダの権限を継承しています
+「権限の継承を中止」を選択します</t>
+    <rPh sb="35" eb="37">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 「チーム名 - メンバ」にチェックを入れ、「ユーザ権限の編集」をクリックします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「制限付きビュー」にチェックが入った状態にし、「OK」とします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="gettingcode"&gt;&lt;/a&gt;動画の埋め込みコードの取得&lt;/h3&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="gettingcode"&gt;&lt;/a&gt;動画のアップロード&lt;/h3&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie2_13.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie2_14.png</t>
+  </si>
+  <si>
+    <t>movie2_15.png</t>
+  </si>
+  <si>
+    <t>movie2_16.png</t>
+  </si>
+  <si>
+    <t>movie2_17.png</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1273,6 +1345,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1651,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F95F980-CC2B-45F9-B5BE-620AB4593CC8}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1826,7 +1901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="27">
+    <row r="26" spans="2:4" ht="18.75">
       <c r="B26" s="4" t="s">
         <v>70</v>
       </c>
@@ -1834,7 +1909,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="18.75">
@@ -1845,7 +1920,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1857,10 +1932,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7444E6EB-2399-4B83-A43D-334DCE33DF01}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1932,179 +2007,269 @@
     <row r="10" spans="1:4" ht="18.75">
       <c r="A10" s="3"/>
       <c r="B10" s="11" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="A11" s="3"/>
       <c r="B11" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="81">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="40.5">
       <c r="A12" s="3"/>
       <c r="B12" s="11" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="81">
       <c r="A13" s="3"/>
-      <c r="B13" s="11" t="s">
-        <v>46</v>
+      <c r="B13" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="A14" s="3"/>
       <c r="B14" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27">
       <c r="A15" s="3"/>
-      <c r="B15" s="11" t="s">
-        <v>65</v>
+      <c r="B15" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27">
       <c r="A17" s="3"/>
-      <c r="B17" s="11" t="s">
-        <v>51</v>
+      <c r="B17" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="B19" s="11" t="s">
-        <v>53</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75">
+      <c r="A18" s="3"/>
+      <c r="B18" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75">
+      <c r="A19" s="3"/>
+      <c r="B19" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75">
-      <c r="B20" s="15" t="s">
-        <v>54</v>
+      <c r="A20" s="3"/>
+      <c r="B20" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="C20" s="9"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4" ht="18.75">
-      <c r="B21" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="9"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="18.75">
-      <c r="B22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="9"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="18.75">
-      <c r="B23" s="2" t="s">
-        <v>56</v>
+      <c r="A23" s="3"/>
+      <c r="B23" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75">
-      <c r="B24" s="2" t="s">
-        <v>57</v>
+      <c r="A24" s="3"/>
+      <c r="B24" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.75">
-      <c r="B25" s="2" t="s">
-        <v>69</v>
+      <c r="A25" s="3"/>
+      <c r="B25" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75">
+      <c r="B28" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" ht="18.75">
+      <c r="B29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" ht="18.75">
+      <c r="B30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" ht="18.75">
+      <c r="B31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.75">
+      <c r="B32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="18.75">
+      <c r="B33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="18.75">
+      <c r="B34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="18.75">
+      <c r="B35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="2:4" ht="18.75">
+      <c r="B36" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="18.75">
-      <c r="B26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18.75">
-      <c r="B27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" ht="18.75">
-      <c r="B28" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>68</v>
+      <c r="D36" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2115,6 +2280,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2363,34 +2555,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2407,23 +2591,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_movie.xlsx
+++ b/guide41_movie.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637866C7-6C22-4331-AA7C-936BE0E679E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2B45B5-8737-40C9-9A00-205B8F1F4EB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="13" r:id="rId1"/>
-    <sheet name="p1" sheetId="12" r:id="rId2"/>
-    <sheet name="p2" sheetId="16" r:id="rId3"/>
+    <sheet name="p1" sheetId="16" r:id="rId2"/>
+    <sheet name="p2" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
   <si>
     <t>header1</t>
   </si>
@@ -331,13 +331,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Streamの動画を掲載する</t>
-    <rPh sb="10" eb="12">
-      <t>ケイサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>Stream上に掲載したい動画がない場合は、</t>
     </r>
@@ -654,176 +647,6 @@
   </si>
   <si>
     <t>Streamへのアップロードが終わったら、moodleで公開したい動画をクリックします</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>この方法は、学生は動画を観る際にmoodleから離れてStreamのサイトに移動することになります
-Stre</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>mにはTeamsやSharePointなどMicrosoft 365</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アプリ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>でアップロードした動画を視聴することができるため、
-すでに他のMicrosoft 365アプリでアップロードした動画を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>moodleで公開</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">することもできます
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;b&gt;動画がアップロードされている場所の権限に関係なく、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>URLをクリックした学内のユーザーは誰でも動画を視聴することが可能ですので、ご注意ください</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <rPh sb="121" eb="122">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="158" eb="160">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="173" eb="175">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="187" eb="189">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="190" eb="192">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="193" eb="195">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="237" eb="239">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アクセス者を限定して動画を掲載する【限定メンバ】</t>
-    <rPh sb="4" eb="5">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケイサイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ゲンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コースに登録された学生だけに動画の閲覧権限を与えたい場合には「限定メンバ」の手法で動画を掲載します。</t>
-    <rPh sb="14" eb="16">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>アタ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>シュホウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ケイサイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -936,22 +759,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>moodle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>にログインし、該当授業のコースを開きます</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「編集モードの開始」をクリックします</t>
   </si>
   <si>
@@ -1170,12 +977,185 @@
   <si>
     <t>movie2_17.png</t>
   </si>
+  <si>
+    <t>チームのメンバ（学生）のみに動画を視聴させたい場合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動画のURLを共有された者のみに動画を視聴させたい場合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>授業用チームを作成されている場合で、チームのメンバー（学生）のみに動画を視聴させたい場合は、本手順に参考に設定を行います。
+チームの所有者以外のメンバーが、動画を編集不可・ダウンロード不可となるよう、動画や動画を保存しているフォルダに対し、アクセス権の設定を行います。
+動画をOnedrive上のチーム領域の以下のどちらに置くかにより、手順が異なります。
+&lt;ul&gt;
+&lt;li&gt;「Recordings/表示のみ」フォルダに置く場合&lt;/li&gt;&lt;/ul&gt;
+アクセス権の設定を行わなくても、最初から「表示のみ・ダウンロード不可」になっているため最も簡単です
+&lt;ul&gt;
+&lt;li&gt;「Recordings/表示のみ」以外のフォルダに置く場合&lt;/li&gt;&lt;/ul&gt;
+一度、フォルダに対してアクセス権設定を行うだけで、以後そのフォルダに入れた動画はフォルダのアクセス権を継承します</t>
+    <rPh sb="27" eb="29">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シチョウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>ホンテジュン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="67" eb="70">
+      <t>ショユウシャ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>この方法では、学生は動画を観る際にmoodleから離れてStreamのサイトに移動することになります
+Stre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>mにはTeamsやSharePointなどMicrosoft 365</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アプリ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>でアップロードした動画を視聴することができるため、
+すでに他のMicrosoft 365アプリでアップロードした動画を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>moodleで公開</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">することもできます
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;動画がアップロードされている場所の権限に関係なく、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>URLをクリックした学内のユーザーは誰でも動画を視聴することが可能ですので、ご注意ください</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <rPh sb="122" eb="123">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="188" eb="190">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="238" eb="240">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1248,28 +1228,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF333333"/>
       <name val="ＭＳ Ｐゴシック "/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1296,7 +1256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1328,26 +1288,20 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1723,11 +1677,355 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7444E6EB-2399-4B83-A43D-334DCE33DF01}">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="83.375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="233.25" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="54">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="54">
+      <c r="A13" s="3"/>
+      <c r="B13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="81">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F95F980-CC2B-45F9-B5BE-620AB4593CC8}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1748,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1767,33 +2065,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="67.5">
       <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="67.5">
+    <row r="7" spans="1:4">
       <c r="A7" s="3"/>
-      <c r="B7" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="81">
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40.5">
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1803,7 +2101,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75">
@@ -1814,7 +2112,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27">
@@ -1825,7 +2123,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.5">
@@ -1836,7 +2134,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1852,7 +2150,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -1862,414 +2160,65 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="18.75">
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="18.75">
       <c r="B26" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="18.75">
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7444E6EB-2399-4B83-A43D-334DCE33DF01}">
-  <dimension ref="A1:D36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="83.375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="27">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="75">
-      <c r="A8" s="3"/>
-      <c r="B8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:4" ht="18.75">
-      <c r="A9" s="3"/>
-      <c r="B9" s="14"/>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" ht="18.75">
-      <c r="A10" s="3"/>
-      <c r="B10" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:4" ht="18.75">
-      <c r="A11" s="3"/>
-      <c r="B11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="40.5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="81">
-      <c r="A13" s="3"/>
-      <c r="B13" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="1:4" ht="18.75">
-      <c r="A14" s="3"/>
-      <c r="B14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27">
-      <c r="A15" s="3"/>
-      <c r="B15" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.75">
-      <c r="A16" s="3"/>
-      <c r="B16" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="27">
-      <c r="A17" s="3"/>
-      <c r="B17" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.75">
-      <c r="A18" s="3"/>
-      <c r="B18" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.75">
-      <c r="A19" s="3"/>
-      <c r="B19" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.75">
-      <c r="A20" s="3"/>
-      <c r="B20" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" spans="1:4" ht="18.75">
-      <c r="A21" s="3"/>
-      <c r="B21" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.75">
-      <c r="A22" s="3"/>
-      <c r="B22" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18.75">
-      <c r="A23" s="3"/>
-      <c r="B23" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18.75">
-      <c r="A24" s="3"/>
-      <c r="B24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18.75">
-      <c r="A25" s="3"/>
-      <c r="B25" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="13" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="B27" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18.75">
-      <c r="B28" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:4" ht="18.75">
-      <c r="B29" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" ht="18.75">
-      <c r="B30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" ht="18.75">
-      <c r="B31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18.75">
-      <c r="B32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="18.75">
-      <c r="B33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="18.75">
-      <c r="B34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="18.75">
-      <c r="B35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="9"/>
-    </row>
-    <row r="36" spans="2:4" ht="18.75">
-      <c r="B36" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2280,33 +2229,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2555,10 +2477,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2575,20 +2535,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41_movie.xlsx
+++ b/guide41_movie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2B45B5-8737-40C9-9A00-205B8F1F4EB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD755E0-6AAC-40ED-9D6F-25E95BE88D1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -1678,10 +1678,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7444E6EB-2399-4B83-A43D-334DCE33DF01}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1691,11 +1691,13 @@
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="216">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
@@ -1721,11 +1723,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="233.25" customHeight="1">
+    <row r="5" spans="1:4">
       <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3"/>
@@ -1733,283 +1733,279 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3"/>
-      <c r="B7" s="11"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="54">
       <c r="A8" s="3"/>
-      <c r="B8" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="54">
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="3"/>
-      <c r="B9" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="B9" s="4"/>
       <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3"/>
       <c r="B11" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:4">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="54">
       <c r="A12" s="3"/>
       <c r="B12" s="12" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="54">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="81">
       <c r="A13" s="3"/>
-      <c r="B13" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="81">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27">
       <c r="A15" s="3"/>
-      <c r="B15" s="12" t="s">
-        <v>40</v>
+      <c r="B15" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="3"/>
-      <c r="B16" s="5" t="s">
-        <v>68</v>
+      <c r="B16" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27">
       <c r="A17" s="3"/>
-      <c r="B17" s="12" t="s">
-        <v>69</v>
+      <c r="B17" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="27">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="3"/>
       <c r="B18" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3"/>
       <c r="B19" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>79</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
-      <c r="B21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="13"/>
+      <c r="B21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3"/>
       <c r="B22" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3"/>
       <c r="B23" s="12" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3"/>
       <c r="B24" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3"/>
       <c r="B25" s="12" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="B27" s="4"/>
+      <c r="B27" s="12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="B28" s="12" t="s">
-        <v>47</v>
+      <c r="B28" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="B29" s="14" t="s">
-        <v>21</v>
+      <c r="B29" s="15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="B30" s="15" t="s">
-        <v>22</v>
+      <c r="B30" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2022,10 +2018,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F95F980-CC2B-45F9-B5BE-620AB4593CC8}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2035,11 +2031,13 @@
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="67.5">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
@@ -2065,159 +2063,153 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="67.5">
+    <row r="5" spans="1:4">
       <c r="A5" s="3"/>
-      <c r="B5" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="81">
+    <row r="8" spans="1:4" ht="81">
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="40.5">
       <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="40.5">
-      <c r="B10" s="4" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75">
       <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75">
-      <c r="B13" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27">
+      <c r="B13" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="40.5">
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="40.5">
-      <c r="B15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="18.75">
+      <c r="D16" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="18.75">
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="18.75">
-      <c r="B25" s="2" t="s">
-        <v>26</v>
+      <c r="B25" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="18.75">
-      <c r="B26" s="4" t="s">
-        <v>65</v>
+      <c r="B26" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="18.75">
-      <c r="B27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="10" t="s">
         <v>64</v>
       </c>
     </row>

--- a/guide41_movie.xlsx
+++ b/guide41_movie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD755E0-6AAC-40ED-9D6F-25E95BE88D1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E55C351-9595-4A10-B268-42E3397F2450}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="13" r:id="rId1"/>
@@ -986,15 +986,157 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>授業用チームを作成されている場合で、チームのメンバー（学生）のみに動画を視聴させたい場合は、本手順に参考に設定を行います。
-チームの所有者以外のメンバーが、動画を編集不可・ダウンロード不可となるよう、動画や動画を保存しているフォルダに対し、アクセス権の設定を行います。
-動画をOnedrive上のチーム領域の以下のどちらに置くかにより、手順が異なります。
+    <r>
+      <t>この方法では、学生は動画を観る際にmoodleから離れてStreamのサイトに移動することになります
+Stre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>mにはTeamsやSharePointなどMicrosoft 365</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アプリ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>でアップロードした動画を視聴することができるため、
+すでに他のMicrosoft 365アプリでアップロードした動画を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>moodleで公開</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">することもできます
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;動画がアップロードされている場所の権限に関係なく、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>URLをクリックした学内のユーザーは誰でも動画を視聴することが可能ですので、ご注意ください</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <rPh sb="122" eb="123">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="188" eb="190">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="238" eb="240">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>授業用チームを作成されている場合で、チームのメンバー（学生）のみに動画を視聴させたい場合は、本手順に参考に設定を行います。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+チームの所有者以外のメンバーが、動画を編集不可・ダウンロード不可となるよう、動画や動画を保存しているフォルダに対し、アクセス権の設定を行います。&lt;br&gt;
+動画をOnedrive上のチーム領域の以下のどちらに置くかにより、手順が異なります。&lt;br&gt;&lt;br&gt;
 &lt;ul&gt;
 &lt;li&gt;「Recordings/表示のみ」フォルダに置く場合&lt;/li&gt;&lt;/ul&gt;
-アクセス権の設定を行わなくても、最初から「表示のみ・ダウンロード不可」になっているため最も簡単です
+アクセス権の設定を行わなくても、最初から「表示のみ・ダウンロード不可」になっているため最も簡単です&lt;br&gt;&lt;br&gt;
 &lt;ul&gt;
 &lt;li&gt;「Recordings/表示のみ」以外のフォルダに置く場合&lt;/li&gt;&lt;/ul&gt;
 一度、フォルダに対してアクセス権設定を行うだけで、以後そのフォルダに入れた動画はフォルダのアクセス権を継承します</t>
+    </r>
     <rPh sb="27" eb="29">
       <t>ガクセイ</t>
     </rPh>
@@ -1019,134 +1161,14 @@
     <rPh sb="56" eb="57">
       <t>オコナ</t>
     </rPh>
-    <rPh sb="67" eb="70">
+    <rPh sb="71" eb="74">
       <t>ショユウシャ</t>
     </rPh>
-    <rPh sb="70" eb="72">
+    <rPh sb="74" eb="76">
       <t>イガイ</t>
     </rPh>
-    <rPh sb="155" eb="157">
+    <rPh sb="163" eb="165">
       <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>この方法では、学生は動画を観る際にmoodleから離れてStreamのサイトに移動することになります
-Stre</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>mにはTeamsやSharePointなどMicrosoft 365</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アプリ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>でアップロードした動画を視聴することができるため、
-すでに他のMicrosoft 365アプリでアップロードした動画を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>moodleで公開</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">することもできます
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;b&gt;動画がアップロードされている場所の権限に関係なく、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>URLをクリックした学内のユーザーは誰でも動画を視聴することが可能ですので、ご注意ください</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <rPh sb="122" eb="123">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="159" eb="161">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="174" eb="176">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="188" eb="190">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="191" eb="193">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="194" eb="196">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="238" eb="240">
-      <t>チュウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1680,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7444E6EB-2399-4B83-A43D-334DCE33DF01}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1691,12 +1713,12 @@
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="216">
+    <row r="1" spans="1:4" ht="234.75">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2020,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F95F980-CC2B-45F9-B5BE-620AB4593CC8}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2036,7 +2058,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2221,6 +2243,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2469,34 +2518,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2513,23 +2554,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_movie.xlsx
+++ b/guide41_movie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E55C351-9595-4A10-B268-42E3397F2450}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DBEBD3-3E6D-4A74-822B-A42B6AAA9BE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="13" r:id="rId1"/>
@@ -987,7 +987,74 @@
   </si>
   <si>
     <r>
-      <t>この方法では、学生は動画を観る際にmoodleから離れてStreamのサイトに移動することになります
+      <t>　授業用チームを作成されている場合で、チームのメンバー（学生）のみに動画を視聴させたい場合は、本手順に参考に設定を行います。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+チームの所有者以外のメンバーが、動画を編集不可・ダウンロード不可となるよう、動画や動画を保存しているフォルダに対し、アクセス権の設定を行います。&lt;br&gt;
+動画をOnedrive上のチーム領域の以下のどちらに置くかにより、手順が異なります。&lt;br&gt;
+&lt;ul&gt;
+&lt;li&gt;「Recordings/表示のみ」フォルダに置く場合&lt;/li&gt;&lt;/ul&gt;
+　　アクセス権の設定を行わなくても、最初から「表示のみ・ダウンロード不可」になっているため最も簡単です&lt;br&gt;
+&lt;ul&gt;
+&lt;li&gt;「Recordings/表示のみ」以外のフォルダに置く場合&lt;/li&gt;&lt;/ul&gt;
+　　一度、フォルダに対してアクセス権設定を行うだけで、以後そのフォルダに入れた動画はフォルダのアクセス権を継承します&lt;br&gt;&lt;br&gt;</t>
+    </r>
+    <rPh sb="28" eb="30">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シチョウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>ホンテジュン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>ショユウシャ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　この方法では、学生は動画を観る際にmoodleから離れてStreamのサイトに移動することになります&lt;br&gt;
 Stre</t>
     </r>
     <r>
@@ -1028,7 +1095,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>でアップロードした動画を視聴することができるため、
+      <t>でアップロードした動画を視聴することができるため、&lt;br&gt;
 すでに他のMicrosoft 365アプリでアップロードした動画を</t>
     </r>
     <r>
@@ -1049,7 +1116,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">することもできます
+      <t xml:space="preserve">することもできます&lt;br&gt;&lt;br&gt;
 </t>
     </r>
     <r>
@@ -1082,93 +1149,26 @@
       </rPr>
       <t>&lt;/b&gt;</t>
     </r>
-    <rPh sb="122" eb="123">
+    <rPh sb="131" eb="132">
       <t>ホカ</t>
     </rPh>
-    <rPh sb="159" eb="161">
+    <rPh sb="168" eb="170">
       <t>コウカイ</t>
     </rPh>
-    <rPh sb="174" eb="176">
+    <rPh sb="191" eb="193">
       <t>ドウガ</t>
     </rPh>
-    <rPh sb="188" eb="190">
+    <rPh sb="205" eb="207">
       <t>バショ</t>
     </rPh>
-    <rPh sb="191" eb="193">
+    <rPh sb="208" eb="210">
       <t>ケンゲン</t>
     </rPh>
-    <rPh sb="194" eb="196">
+    <rPh sb="211" eb="213">
       <t>カンケイ</t>
     </rPh>
-    <rPh sb="238" eb="240">
+    <rPh sb="255" eb="257">
       <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>授業用チームを作成されている場合で、チームのメンバー（学生）のみに動画を視聴させたい場合は、本手順に参考に設定を行います。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;br&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-チームの所有者以外のメンバーが、動画を編集不可・ダウンロード不可となるよう、動画や動画を保存しているフォルダに対し、アクセス権の設定を行います。&lt;br&gt;
-動画をOnedrive上のチーム領域の以下のどちらに置くかにより、手順が異なります。&lt;br&gt;&lt;br&gt;
-&lt;ul&gt;
-&lt;li&gt;「Recordings/表示のみ」フォルダに置く場合&lt;/li&gt;&lt;/ul&gt;
-アクセス権の設定を行わなくても、最初から「表示のみ・ダウンロード不可」になっているため最も簡単です&lt;br&gt;&lt;br&gt;
-&lt;ul&gt;
-&lt;li&gt;「Recordings/表示のみ」以外のフォルダに置く場合&lt;/li&gt;&lt;/ul&gt;
-一度、フォルダに対してアクセス権設定を行うだけで、以後そのフォルダに入れた動画はフォルダのアクセス権を継承します</t>
-    </r>
-    <rPh sb="27" eb="29">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>シチョウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="46" eb="49">
-      <t>ホンテジュン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>サンコウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="71" eb="74">
-      <t>ショユウシャ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>イカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1702,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7444E6EB-2399-4B83-A43D-334DCE33DF01}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1713,12 +1713,12 @@
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="234.75">
+    <row r="1" spans="1:4" ht="207.75">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2042,7 +2042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F95F980-CC2B-45F9-B5BE-620AB4593CC8}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2053,12 +2053,12 @@
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="67.5">
+    <row r="1" spans="1:4" ht="81">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2243,33 +2243,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2518,10 +2491,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2538,20 +2549,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41_movie.xlsx
+++ b/guide41_movie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DBEBD3-3E6D-4A74-822B-A42B6AAA9BE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FA900D-34EF-4285-90DD-909B4B5C4F9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="13" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
   <si>
     <t>header1</t>
   </si>
@@ -1700,9 +1700,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7444E6EB-2399-4B83-A43D-334DCE33DF01}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1745,289 +1745,295 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="207.75">
       <c r="A5" s="3"/>
-      <c r="B5" s="11"/>
+      <c r="B5" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3"/>
-      <c r="B6" s="11"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3"/>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="54">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5" t="s">
+    <row r="9" spans="1:4" ht="54">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
       <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
-      <c r="B10" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="B10" s="4"/>
       <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3"/>
       <c r="B11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="54">
+        <v>74</v>
+      </c>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="3"/>
       <c r="B12" s="12" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="54">
+      <c r="A13" s="3"/>
+      <c r="B13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="81">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5" t="s">
+    <row r="14" spans="1:4" ht="81">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="12" t="s">
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27">
       <c r="A16" s="3"/>
-      <c r="B16" s="12" t="s">
-        <v>69</v>
+      <c r="B16" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="27">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="3"/>
-      <c r="B17" s="5" t="s">
-        <v>70</v>
+      <c r="B17" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27">
       <c r="A18" s="3"/>
       <c r="B18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3"/>
       <c r="B19" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="13"/>
+        <v>72</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
-      <c r="B21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="B21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3"/>
       <c r="B22" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3"/>
       <c r="B23" s="12" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3"/>
       <c r="B24" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3"/>
       <c r="B25" s="12" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="B26" s="4"/>
-    </row>
     <row r="27" spans="1:4">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="B28" s="14" t="s">
+    <row r="29" spans="1:4">
+      <c r="B29" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="B29" s="15" t="s">
+    <row r="30" spans="1:4">
+      <c r="B30" s="15" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2042,7 +2048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F95F980-CC2B-45F9-B5BE-620AB4593CC8}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2243,6 +2249,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2491,34 +2524,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2535,23 +2560,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_movie.xlsx
+++ b/guide41_movie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FA900D-34EF-4285-90DD-909B4B5C4F9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64D25E2-C63A-4C04-B4F3-52C87975CC3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="13" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
   <si>
     <t>header1</t>
   </si>
@@ -1172,12 +1172,38 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;&lt;a name="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>first</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;&lt;/a&gt;はじめに&lt;/h3&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1252,6 +1278,13 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="ＭＳ Ｐゴシック "/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1700,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7444E6EB-2399-4B83-A43D-334DCE33DF01}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1745,295 +1778,301 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="207.75">
+    <row r="5" spans="1:4">
       <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="3"/>
-      <c r="B7" s="11"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="207.75">
       <c r="A8" s="3"/>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="54">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5" t="s">
+    <row r="10" spans="1:4" ht="54">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
       <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3"/>
-      <c r="B11" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="B11" s="4"/>
       <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3"/>
       <c r="B12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="54">
+        <v>74</v>
+      </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="3"/>
       <c r="B13" s="12" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="54">
+      <c r="A14" s="3"/>
+      <c r="B14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="81">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="1:4" ht="81">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="12" t="s">
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27">
       <c r="A17" s="3"/>
-      <c r="B17" s="12" t="s">
-        <v>69</v>
+      <c r="B17" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="27">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="3"/>
-      <c r="B18" s="5" t="s">
-        <v>70</v>
+      <c r="B18" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27">
       <c r="A19" s="3"/>
       <c r="B19" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
       <c r="B21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="13"/>
+        <v>72</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3"/>
-      <c r="B22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="B22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3"/>
       <c r="B23" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3"/>
       <c r="B24" s="12" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3"/>
       <c r="B25" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3"/>
       <c r="B26" s="12" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3"/>
+      <c r="B27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="B27" s="4"/>
-    </row>
     <row r="28" spans="1:4">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="B29" s="14" t="s">
+    <row r="30" spans="1:4">
+      <c r="B30" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="B30" s="15" t="s">
+    <row r="31" spans="1:4">
+      <c r="B31" s="15" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2046,10 +2085,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F95F980-CC2B-45F9-B5BE-620AB4593CC8}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2099,145 +2138,157 @@
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="A7" s="3"/>
+      <c r="B7" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="81">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="81">
-      <c r="B8" s="4" t="s">
+    <row r="10" spans="1:4" ht="81">
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="40.5">
-      <c r="B9" s="4" t="s">
+    <row r="11" spans="1:4" ht="40.5">
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="2" t="s">
+    <row r="12" spans="1:4">
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="2" t="s">
+    <row r="13" spans="1:4">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75">
-      <c r="B12" s="2" t="s">
+    <row r="14" spans="1:4" ht="18.75">
+      <c r="B14" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="27">
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="40.5">
-      <c r="B14" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.75">
-      <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27">
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="40.5">
+      <c r="B16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="18.75">
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="18.75">
-      <c r="B24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="18.75">
-      <c r="B25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="18.75">
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="18.75">
+      <c r="B27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="18.75">
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2249,33 +2300,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2524,10 +2548,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2544,20 +2606,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41_movie.xlsx
+++ b/guide41_movie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64D25E2-C63A-4C04-B4F3-52C87975CC3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B3E8A7-5520-4184-B206-213E45BCDDB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="13" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
   <si>
     <t>header1</t>
   </si>
@@ -1196,6 +1196,193 @@
       </rPr>
       <t>"&gt;&lt;/a&gt;はじめに&lt;/h3&gt;</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>この方法では、学生は動画を観る際にmoodleから離れてStreamのサイトに移動することになります&lt;br&gt;
+Stre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>mにはTeamsやSharePointなどMicrosoft 365</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アプリ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>でアップロードした動画を視聴することができるため、&lt;br&gt;
+すでに他のMicrosoft 365アプリでアップロードした動画を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>moodleで公開</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">することもできます&lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;動画がアップロードされている場所の権限に関係なく、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>URLをクリックした学内のユーザーは誰でも動画を視聴することが可能ですので、ご注意ください</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <rPh sb="130" eb="131">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="207" eb="209">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="210" eb="212">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="254" eb="256">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>授業用チームを作成されている場合で、チームのメンバー（学生）のみに動画を視聴させたい場合は、本手順に参考に設定を行います。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+チームの所有者以外のメンバーが、動画を編集不可・ダウンロード不可となるよう、動画や動画を保存しているフォルダに対し、アクセス権の設定を行います。&lt;br&gt;
+動画をOnedrive上のチーム領域の以下のどちらに置くかにより、手順が異なります。&lt;br&gt;
+&lt;ul&gt;
+&lt;li&gt;「Recordings/表示のみ」フォルダに置く場合&lt;/li&gt;&lt;/ul&gt;
+　　アクセス権の設定を行わなくても、最初から「表示のみ・ダウンロード不可」になっているため最も簡単です&lt;br&gt;
+&lt;ul&gt;
+&lt;li&gt;「Recordings/表示のみ」以外のフォルダに置く場合&lt;/li&gt;&lt;/ul&gt;
+　　一度、フォルダに対してアクセス権設定を行うだけで、以後そのフォルダに入れた動画はフォルダのアクセス権を継承します</t>
+    </r>
+    <rPh sb="27" eb="29">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シチョウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>ホンテジュン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>ショユウシャ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>イカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1735,8 +1922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7444E6EB-2399-4B83-A43D-334DCE33DF01}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1795,7 +1982,7 @@
     <row r="8" spans="1:4" ht="207.75">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2087,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F95F980-CC2B-45F9-B5BE-620AB4593CC8}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2147,7 +2334,7 @@
     <row r="8" spans="1:4" ht="81">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2300,6 +2487,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2548,34 +2762,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2592,23 +2798,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_movie.xlsx
+++ b/guide41_movie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumiya/github/support-vle/support-vle-man/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B3E8A7-5520-4184-B206-213E45BCDDB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9662DA-7BDD-4D40-95EE-8A555259C746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="700" yWindow="1100" windowWidth="24920" windowHeight="20400" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="13" r:id="rId1"/>
@@ -675,20 +675,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Teamsアプリから、コース用に作成したチームの「ファイル」をクリックします</t>
-    <rPh sb="14" eb="15">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>movie2_1.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>movie2_2.png</t>
   </si>
   <si>
@@ -955,10 +941,6 @@
   </si>
   <si>
     <t>&lt;h3&gt;&lt;a name="gettingcode"&gt;&lt;/a&gt;動画の埋め込みコードの取得&lt;/h3&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="gettingcode"&gt;&lt;/a&gt;動画のアップロード&lt;/h3&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1320,7 +1302,7 @@
   </si>
   <si>
     <r>
-      <t>授業用チームを作成されている場合で、チームのメンバー（学生）のみに動画を視聴させたい場合は、本手順に参考に設定を行います。</t>
+      <t>授業用チームを作成されている場合で、厳密にチームのメンバー（学生）だけに動画の視聴権限を出したい場合は、本手順に参考に設定を行います。</t>
     </r>
     <r>
       <rPr>
@@ -1341,48 +1323,125 @@
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">
-チームの所有者以外のメンバーが、動画を編集不可・ダウンロード不可となるよう、動画や動画を保存しているフォルダに対し、アクセス権の設定を行います。&lt;br&gt;
-動画をOnedrive上のチーム領域の以下のどちらに置くかにより、手順が異なります。&lt;br&gt;
+Teamsでは、チームの「ファイル」に置いたファイルはデフォルトでチームメンバーの誰でもが編集・ダウンロード可能になります。今の場合、動画をダウンロードさせず視聴だけできるようにしたいので、動画保存用のフォルダを作り、そのフォルダのアクセス権をそのように設定します。&lt;br&gt;
 &lt;ul&gt;
-&lt;li&gt;「Recordings/表示のみ」フォルダに置く場合&lt;/li&gt;&lt;/ul&gt;
-　　アクセス権の設定を行わなくても、最初から「表示のみ・ダウンロード不可」になっているため最も簡単です&lt;br&gt;
+&lt;li&gt;「Recordings/表示のみ」フォルダを使う場合&lt;/li&gt;&lt;/ul&gt;
+　　該当チームのチャンネルで一度でもTeams会議を開き録画を行った場合には、「Recordings/表示のみ」というフォルダが自動的にできています。このフォルダのアクセス権は、最初から「表示のみ・ダウンロード不可」になっているためこれを使うと設定の手間が省けます。&lt;br&gt;
 &lt;ul&gt;
-&lt;li&gt;「Recordings/表示のみ」以外のフォルダに置く場合&lt;/li&gt;&lt;/ul&gt;
-　　一度、フォルダに対してアクセス権設定を行うだけで、以後そのフォルダに入れた動画はフォルダのアクセス権を継承します</t>
-    </r>
-    <rPh sb="27" eb="29">
+&lt;li&gt;「Recordings/表示のみ」以外のフォルダを使う場合&lt;/li&gt;&lt;/ul&gt;
+　　最初に一度、フォルダに対してアクセス権設定を行います。以後、そのフォルダに入れた動画はフォルダのアクセス権を継承しますので、すべて「表示のみ・ダウンロード不可」となります。</t>
+    </r>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">ゲンミツニン </t>
+    </rPh>
+    <rPh sb="30" eb="32">
       <t>ガクセイ</t>
     </rPh>
-    <rPh sb="33" eb="35">
+    <rPh sb="36" eb="38">
       <t>ドウガ</t>
     </rPh>
-    <rPh sb="36" eb="38">
-      <t>シチョウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
+    <rPh sb="39" eb="43">
+      <t xml:space="preserve">シチョウケンゲン </t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t xml:space="preserve">ダシタ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="46" eb="49">
+    <rPh sb="52" eb="55">
       <t>ホンテジュン</t>
     </rPh>
-    <rPh sb="50" eb="52">
+    <rPh sb="56" eb="58">
       <t>サンコウ</t>
     </rPh>
-    <rPh sb="53" eb="55">
+    <rPh sb="59" eb="61">
       <t>セッテイ</t>
     </rPh>
-    <rPh sb="56" eb="57">
+    <rPh sb="62" eb="63">
       <t>オコナ</t>
     </rPh>
-    <rPh sb="70" eb="73">
-      <t>ショユウシャ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="162" eb="164">
-      <t>イカ</t>
-    </rPh>
+    <rPh sb="91" eb="92">
+      <t xml:space="preserve">オイタファイル </t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t xml:space="preserve">ヘンシュウ </t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t xml:space="preserve">カノウ </t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t xml:space="preserve">イマノバアイ </t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t xml:space="preserve">ドウガ </t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t xml:space="preserve">シチョウ </t>
+    </rPh>
+    <rPh sb="167" eb="171">
+      <t xml:space="preserve">ドウガホゾンヨウ </t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t xml:space="preserve">ヨウノ </t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t xml:space="preserve">ツクッテ </t>
+    </rPh>
+    <rPh sb="242" eb="243">
+      <t xml:space="preserve">ツカウ </t>
+    </rPh>
+    <rPh sb="259" eb="261">
+      <t xml:space="preserve">ガイトウ </t>
+    </rPh>
+    <rPh sb="271" eb="273">
+      <t xml:space="preserve">イチドデモ </t>
+    </rPh>
+    <rPh sb="280" eb="282">
+      <t xml:space="preserve">カイギ </t>
+    </rPh>
+    <rPh sb="283" eb="284">
+      <t xml:space="preserve">ヒラキロクガ </t>
+    </rPh>
+    <rPh sb="288" eb="289">
+      <t xml:space="preserve">オコナッタバアイ </t>
+    </rPh>
+    <rPh sb="308" eb="310">
+      <t xml:space="preserve">ヒョウジノミ </t>
+    </rPh>
+    <rPh sb="321" eb="324">
+      <t xml:space="preserve">ジドウテキニ </t>
+    </rPh>
+    <rPh sb="379" eb="381">
+      <t xml:space="preserve">セッテイノテマガハブケマス </t>
+    </rPh>
+    <rPh sb="430" eb="431">
+      <t xml:space="preserve">ツカウ </t>
+    </rPh>
+    <rPh sb="447" eb="449">
+      <t xml:space="preserve">サイショニ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="preparefolder"&gt;&lt;/a&gt;チームにフォルダを作成&lt;/h3&gt;</t>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">サクセイスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Teamsでコース用に作成したチームをひらき、「ファイル」をクリックします</t>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie2b_1.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1498,45 +1557,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1563,9 +1619,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1603,7 +1659,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1709,7 +1765,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1851,7 +1907,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1865,10 +1921,10 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.375" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1887,11 +1943,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="19">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1899,7 +1955,7 @@
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:2" ht="54">
+    <row r="5" spans="1:2" ht="60">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
@@ -1922,34 +1978,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7444E6EB-2399-4B83-A43D-334DCE33DF01}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="83.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="83.33203125" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="207.75">
+    <row r="1" spans="1:4" ht="229">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1957,310 +2013,310 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3"/>
-      <c r="B5" s="11"/>
+      <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="18.75">
+    <row r="7" spans="1:4" ht="19">
       <c r="A7" s="3"/>
-      <c r="B7" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="207.75">
+      <c r="B7" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="244">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="3"/>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="54">
+    <row r="10" spans="1:4" ht="60">
       <c r="A10" s="3"/>
       <c r="B10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" s="3"/>
-      <c r="B12" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" ht="15">
       <c r="A13" s="3"/>
-      <c r="B13" s="12" t="s">
-        <v>37</v>
+      <c r="B13" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="54">
+      <c r="D13" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="60">
       <c r="A14" s="3"/>
-      <c r="B14" s="12" t="s">
-        <v>66</v>
+      <c r="B14" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="81">
+      <c r="D14" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="90">
       <c r="A15" s="3"/>
       <c r="B15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="1:4">
+        <v>65</v>
+      </c>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" ht="15">
       <c r="A16" s="3"/>
-      <c r="B16" s="12" t="s">
-        <v>40</v>
+      <c r="B16" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="27">
+      <c r="D16" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30">
       <c r="A17" s="3"/>
       <c r="B17" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
       <c r="A18" s="3"/>
-      <c r="B18" s="12" t="s">
-        <v>69</v>
+      <c r="B18" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="27">
+      <c r="D18" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="3"/>
       <c r="B19" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="D19" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
       <c r="A20" s="3"/>
       <c r="B20" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" s="3"/>
       <c r="B21" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="D21" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
       <c r="A22" s="3"/>
       <c r="B22" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" spans="1:4">
+        <v>71</v>
+      </c>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" ht="15">
       <c r="A23" s="3"/>
-      <c r="B23" s="12" t="s">
-        <v>40</v>
+      <c r="B23" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="D23" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
       <c r="A24" s="3"/>
-      <c r="B24" s="12" t="s">
-        <v>42</v>
+      <c r="B24" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="D24" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15">
       <c r="A25" s="3"/>
-      <c r="B25" s="12" t="s">
-        <v>58</v>
+      <c r="B25" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="D25" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15">
       <c r="A26" s="3"/>
-      <c r="B26" s="12" t="s">
-        <v>57</v>
+      <c r="B26" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="D26" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
       <c r="A27" s="3"/>
-      <c r="B27" s="12" t="s">
-        <v>45</v>
+      <c r="B27" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>59</v>
+      <c r="D27" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:4">
-      <c r="B29" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" s="14" t="s">
+    <row r="29" spans="1:4" ht="15">
+      <c r="B29" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15">
+      <c r="B30" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="B31" s="15" t="s">
+    <row r="31" spans="1:4" ht="15">
+      <c r="B31" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>51</v>
+      <c r="D33" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>52</v>
+      <c r="D34" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>54</v>
+      <c r="D35" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>60</v>
+      <c r="D36" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>61</v>
+      <c r="D38" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2278,30 +2334,30 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="103.83203125" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="81">
+    <row r="1" spans="1:4" ht="75">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2309,7 +2365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75">
+    <row r="4" spans="1:4" ht="19">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2325,16 +2381,16 @@
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="18.75">
+    <row r="7" spans="1:4" ht="19">
       <c r="A7" s="3"/>
-      <c r="B7" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="81">
+      <c r="B7" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="75">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2342,12 +2398,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="81">
+    <row r="10" spans="1:4" ht="90">
       <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="40.5">
+    <row r="11" spans="1:4" ht="30">
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
@@ -2362,36 +2418,36 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75">
+    <row r="14" spans="1:4" ht="18">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27">
+    <row r="15" spans="1:4" ht="30">
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="40.5">
+    <row r="16" spans="1:4" ht="45">
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2400,14 +2456,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="18.75">
+    <row r="18" spans="2:4" ht="18">
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2446,37 +2502,37 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="18.75">
+    <row r="26" spans="2:4" ht="18">
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="18.75">
+    <row r="27" spans="2:4" ht="18">
       <c r="B27" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="18.75">
+      <c r="D27" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="18">
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>64</v>
+      <c r="D28" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2487,33 +2543,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2762,10 +2791,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2782,20 +2849,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>